--- a/biology/Botanique/Ceratozamia/Ceratozamia.xlsx
+++ b/biology/Botanique/Ceratozamia/Ceratozamia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceratozamia est un genre de plantes de l'ordre des Cycadales et de la famille des Zamiaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (10 octobre 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (10 octobre 2019) :
 Ceratozamia alvarezii Pérez-Farr. Vovides &amp; Iglesias
 Ceratozamia beccarae Pérez-Farr. Vovides &amp; Schutzman
 Ceratozamia euryphyllidia Vázq. Torres, Sabato &amp; D.W. Stev.
@@ -535,7 +549,7 @@
 Ceratozamia whitelockiana Chemnick &amp; T.J. Greg.
 Ceratozamia zaragozae Medellín-Leal
 Ceratozamia zoquorum Pérez-Farr., Vovides &amp; Iglesias
-Selon Catalogue of Life                                   (10 octobre 2019)[3] :
+Selon Catalogue of Life                                   (10 octobre 2019) :
 Ceratozamia alvarezii Pérez-Farr., Vovides &amp; Iglesias
 Ceratozamia brevifrons Miq.
 Ceratozamia chamberlainii Mart.-Domínguez, Nic.-Mor. &amp; D.W.Stev.
@@ -567,7 +581,7 @@
 Ceratozamia whitelockiana Chemnick &amp; T.J.Greg.
 Ceratozamia zaragozae Medellín
 Ceratozamia zoquorum Pérez-Farr., Vovides &amp; Iglesias
-Selon GRIN            (10 octobre 2019)[4] :
+Selon GRIN            (10 octobre 2019) :
 Ceratozamia alvarezzi Pérez-Farrera &amp; al.
 Ceratozamia becerrae Pérez-Farrera &amp; al.
 Ceratozamia euryphyllidia Vázq. Torres &amp; al.
@@ -589,7 +603,7 @@
 Ceratozamia whitelockiana Chemnick &amp; T. J. Greg.
 Ceratozamia zaragozae Medellin-Leal
 Ceratozamia zoquorum Pérez-Farrera &amp; al.
-Selon ITIS      (10 octobre 2019)[5] :
+Selon ITIS      (10 octobre 2019) :
 Ceratozamia alvarezii Pérez-Farr., Vovides &amp; Iglesias
 Ceratozamia becerrae Pérez-Farr., Vovides &amp; Schutzman
 Ceratozamia brevifrons Miq.
@@ -617,7 +631,7 @@
 Ceratozamia whitelockiana Chemnick &amp; T.J. Greg.
 Ceratozamia zaragozae Medellín-Leal
 Ceratozamia zoquorum Pérez-Farr., Vovides &amp; Iglesias
-Selon World Checklist of Selected Plant Families (WCSP)  (10 octobre 2019)[6] :
+Selon World Checklist of Selected Plant Families (WCSP)  (10 octobre 2019) :
 Ceratozamia alvarezii Pérez-Farr., Vovides &amp; Iglesias (1999)
 Ceratozamia becerrae Pérez-Farr., Vovides &amp; Schutzman (2004)
 Ceratozamia brevifrons Miq. (1848)
@@ -649,7 +663,7 @@
 Ceratozamia whitelockiana Chemnick &amp; T.J.Greg. (1995 publ. 1996)
 Ceratozamia zaragozae Medellín (1963)
 Ceratozamia zoquorum Pérez-Farr., Vovides, Iglesias (2001)
-Selon The Plant List            (10 octobre 2019)[7] :
+Selon The Plant List            (10 octobre 2019) :
 Ceratozamia alvarezii Perez-Farrera, Vovides &amp; Iglesias
 Ceratozamia becerrae Pérez-Farr., Vovides &amp; Schutzman
 Ceratozamia chimalapensis Pérez-Farr. &amp; Vovides
@@ -675,7 +689,7 @@
 Ceratozamia whitelockiana Chemnick &amp; T.J.Greg.
 Ceratozamia zaragozae Medellín
 Ceratozamia zoquorum Pérez-Farr., Vovides, Iglesias
-Selon Tropicos                                           (10 octobre 2019)[8] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (10 octobre 2019) (Attention liste brute contenant possiblement des synonymes) :
 Ceratozamia alvarezii Pérez-Farr., Vovides &amp; Iglesias
 Ceratozamia becerrae Pérez-Farr., Vovides &amp; Schutzman
 Ceratozamia boliviana Brongn.
